--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -509,9 +509,21 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-12-25 23:19:05</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,11 +551,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-12-25 23:10:44</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -572,11 +592,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-12-25 23:10:45</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -18923,8 +18951,16 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr"/>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2025-12-25 23:18:51</t>
+        </is>
+      </c>
       <c r="I560" t="inlineStr"/>
     </row>
     <row r="561">

--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -506,24 +506,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>General Admin</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-25 23:19:05</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>2025-12-26 13:37:06</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,15 +552,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>General Admin</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-12-25 23:10:44</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>2025-12-26 13:37:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,19 +592,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-12-25 23:10:45</t>
-        </is>
-      </c>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -18951,16 +18943,8 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2025-12-25 23:18:51</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr"/>
     </row>
     <row r="561">

--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B832313E-4EFA-46C4-80AD-1C6B00F818D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC1A49-CB23-4EF7-B465-4DAB83D1451D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11739,7 +11739,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I559" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -13140,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -14774,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -15154,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -15192,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -15534,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -16142,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -16560,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -16826,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -17847,12 +17847,16 @@
       <c r="G458" t="n">
         <v>0</v>
       </c>
-      <c r="H458" t="inlineStr"/>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
       <c r="J458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -17890,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -17928,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -18194,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -18232,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -18270,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -18536,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -18574,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -18612,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -18878,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -18916,7 +18920,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -18954,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -19220,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -19258,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -19296,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -19562,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -19600,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -19638,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -19904,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -19942,7 +19946,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -19980,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -20246,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -20284,7 +20288,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -20322,7 +20326,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -20588,7 +20592,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -20626,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -20664,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -20930,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -20968,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="J540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -21006,7 +21010,7 @@
         <v>0</v>
       </c>
       <c r="J541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -21272,7 +21276,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -21310,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -21348,7 +21352,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -21614,7 +21618,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -21652,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -21690,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CCE6CB-283D-49C3-8471-34E1848CEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8582D-C8D1-4690-B01E-12DA79544E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>day</t>
   </si>
   <si>
-    <t>shiftPeriod</t>
+    <t>shiftperiod</t>
   </si>
   <si>
-    <t>shiftLevel</t>
+    <t>shiftlevel</t>
   </si>
   <si>
-    <t>approvedShift</t>
+    <t>approvedshift</t>
   </si>
   <si>
-    <t>isOpen</t>
+    <t>isopen</t>
   </si>
   <si>
     <t>remarks</t>
@@ -49,7 +49,7 @@
     <t>onjobtrain</t>
   </si>
   <si>
-    <t>nightShift</t>
+    <t>nightshift</t>
   </si>
   <si>
     <t>2026-01</t>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +461,13 @@
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281:XFD559"/>
+      <selection activeCell="A281" sqref="A281:XFD1675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/data/slot_control.xlsx
+++ b/data/slot_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8582D-C8D1-4690-B01E-12DA79544E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455610F2-FDBC-4FED-9699-12B219C8EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,16 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J280"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281:XFD1675"/>
+      <selection activeCell="A281" sqref="A281:XFD532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -8591,6 +8588,762 @@
       <c r="J280">
         <v>0</v>
       </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B532" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
